--- a/docs/templates/ccrcn_species_template.xlsx
+++ b/docs/templates/ccrcn_species_template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">column_name</t>
   </si>
@@ -21,16 +21,16 @@
     <t xml:space="preserve">definition</t>
   </si>
   <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
     <t xml:space="preserve">field_type</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">text_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values</t>
+    <t xml:space="preserve">variable_codes</t>
   </si>
   <si>
     <t xml:space="preserve">study_id</t>
@@ -39,6 +39,9 @@
     <t xml:space="preserve">Unique identifier for the study made up of the first author's family name, as well as the second author's family name or et al. if more than three, then publication year separated by underscores.</t>
   </si>
   <si>
+    <t xml:space="preserve">optional</t>
+  </si>
+  <si>
     <t xml:space="preserve">character</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t xml:space="preserve">Defines whether the code refers to a description, or level of plant taxonomy.</t>
   </si>
   <si>
+    <t xml:space="preserve">conditional</t>
+  </si>
+  <si>
     <t xml:space="preserve">factor</t>
   </si>
   <si>
@@ -79,18 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">mangrove = Tropical and dominated by specialized shrubs or trees.; swamp = Predominantly freshwater and dominated by trees.; scrub/shrub = Wetland dominated by shrubs.; marsh = Wetland dominated by emergent vegetation, gramminoids or forbs.; seagrass = Intertidal to subtidal and dominated by specialized predominantly submerged grasses.; algal mat = Dominated by algae.; unvegetated = Unvegetated.; mudflat = Describes unvegetated areas exposed and flooded by the tides.; upland = Predominately above sea level and dominated by trees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format, units, or variable codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description; Family; Genus; Genus species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mangrove; swamp; scrub/shrub; marsh; seagrass; algal mat; unvegetated; mudflat; upland</t>
   </si>
 </sst>
 </file>
@@ -482,82 +476,94 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -597,51 +603,33 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="7.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
